--- a/CL_scraper/3-17-17_Data_Pull/chicago Listings For Data Pull 3-17-17.xlsx
+++ b/CL_scraper/3-17-17_Data_Pull/chicago Listings For Data Pull 3-17-17.xlsx
@@ -2887,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I160" workbookViewId="0">
-      <selection activeCell="N177" sqref="N177"/>
+    <sheetView tabSelected="1" topLeftCell="I133" workbookViewId="0">
+      <selection activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3020,7 +3020,7 @@
       <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>555</v>
@@ -3337,7 +3337,7 @@
       <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
@@ -4479,7 +4479,7 @@
       <c r="I35" t="s">
         <v>104</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="2" t="s">
         <v>113</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="s">
         <v>595</v>
@@ -4573,7 +4573,7 @@
       <c r="I37" t="s">
         <v>104</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="2" t="s">
         <v>119</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="s">
         <v>595</v>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="s">
         <v>597</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="s">
         <v>597</v>
@@ -4943,7 +4943,7 @@
       <c r="I45" t="s">
         <v>104</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="2" t="s">
         <v>143</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="s">
         <v>595</v>
@@ -4990,7 +4990,7 @@
       <c r="I46" t="s">
         <v>104</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="2" t="s">
         <v>146</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="s">
         <v>555</v>
@@ -5771,7 +5771,7 @@
       <c r="I63" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="5" t="s">
         <v>195</v>
       </c>
       <c r="K63" s="5" t="s">
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>555</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>599</v>
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>596</v>
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="s">
         <v>595</v>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="s">
         <v>595</v>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="O104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="s">
         <v>595</v>
@@ -7750,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="s">
         <v>555</v>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="s">
         <v>597</v>
@@ -8460,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="O122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>595</v>
@@ -8642,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="O126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>597</v>
@@ -9232,7 +9232,7 @@
         <v>1</v>
       </c>
       <c r="O139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>595</v>
@@ -9789,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="O152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P152" t="s">
         <v>597</v>
@@ -9880,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P154" t="s">
         <v>597</v>
@@ -9927,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="O155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.45">
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P156" t="s">
         <v>595</v>
@@ -10150,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="O160" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P160" t="s">
         <v>595</v>
@@ -10470,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" t="s">
         <v>555</v>
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="O170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" t="s">
         <v>597</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="O177" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177" t="s">
         <v>666</v>
@@ -11369,8 +11369,15 @@
     <hyperlink ref="J179" r:id="rId249"/>
     <hyperlink ref="J180" r:id="rId250"/>
     <hyperlink ref="J181" r:id="rId251"/>
+    <hyperlink ref="J3" r:id="rId252"/>
+    <hyperlink ref="J10" r:id="rId253"/>
+    <hyperlink ref="J35" r:id="rId254"/>
+    <hyperlink ref="J37" r:id="rId255"/>
+    <hyperlink ref="J45" r:id="rId256"/>
+    <hyperlink ref="J46" r:id="rId257"/>
+    <hyperlink ref="J63" r:id="rId258"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId252"/>
+  <pageSetup orientation="portrait" r:id="rId259"/>
 </worksheet>
 </file>
--- a/CL_scraper/3-17-17_Data_Pull/chicago Listings For Data Pull 3-17-17.xlsx
+++ b/CL_scraper/3-17-17_Data_Pull/chicago Listings For Data Pull 3-17-17.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="chicago Listings For Data Pull " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="675">
   <si>
     <t>city</t>
   </si>
@@ -1800,9 +1800,6 @@
     <t>fsqsf-6045278105@hous.craigslist.org</t>
   </si>
   <si>
-    <t>Repeat (1=sent, 0 = no)</t>
-  </si>
-  <si>
     <t>Professional</t>
   </si>
   <si>
@@ -2023,12 +2020,39 @@
   </si>
   <si>
     <t>natina@ncgchicago.com</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>1=sent, 0=no</t>
+  </si>
+  <si>
+    <t>Datetime sent</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Datetime received</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Followup email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2521,7 +2545,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -2529,6 +2553,27 @@
     <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2885,26 +2930,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I133" workbookViewId="0">
-      <selection activeCell="J177" sqref="J177"/>
+    <sheetView tabSelected="1" topLeftCell="F153" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:T181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="2" width="9.06640625" customWidth="1"/>
     <col min="3" max="3" width="28.06640625" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
+    <col min="5" max="7" width="9.06640625" customWidth="1"/>
     <col min="8" max="8" width="9.59765625" customWidth="1"/>
     <col min="9" max="9" width="13.86328125" customWidth="1"/>
-    <col min="10" max="10" width="46.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.1328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="45.73046875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="24.86328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1328125" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625" style="7"/>
+    <col min="19" max="19" width="20" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2942,13 +2993,28 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>668</v>
+      </c>
+      <c r="P1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>21</v>
       </c>
@@ -2992,10 +3058,13 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>23</v>
       </c>
@@ -3038,8 +3107,17 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="10">
+        <v>42813.756944444445</v>
+      </c>
+      <c r="R3" s="8">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
+        <v>42814.748611111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -3088,8 +3166,17 @@
       <c r="P4" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q4" s="10">
+        <v>42813.758333333331</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>42813.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -3132,8 +3219,17 @@
       <c r="O5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q5" s="10">
+        <v>42813.763888888891</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="10">
+        <v>42813.93472222222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>90</v>
       </c>
@@ -3176,8 +3272,17 @@
       <c r="O6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q6" s="10">
+        <v>42813.76458333333</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <v>42814.388888888891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>78</v>
       </c>
@@ -3220,8 +3325,13 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>16</v>
       </c>
@@ -3267,8 +3377,17 @@
       <c r="P8" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q8" s="10">
+        <v>42814.963194444441</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
+        <v>42815.009722222225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>34</v>
       </c>
@@ -3311,8 +3430,13 @@
       <c r="O9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="8">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -3355,8 +3479,13 @@
       <c r="O10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="8">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>65</v>
       </c>
@@ -3400,10 +3529,19 @@
         <v>1</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>595</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>42813.768750000003</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="S11" s="10">
+        <v>42813.874305555553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>108</v>
       </c>
@@ -3449,8 +3587,13 @@
       <c r="O12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>67</v>
       </c>
@@ -3493,8 +3636,13 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q13" s="12"/>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>28</v>
       </c>
@@ -3537,8 +3685,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>45</v>
       </c>
@@ -3581,8 +3732,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -3625,8 +3779,13 @@
       <c r="O16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3672,8 +3831,11 @@
       <c r="P17" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>5</v>
       </c>
@@ -3720,10 +3882,22 @@
         <v>1</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>42813.773611111108</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
+        <v>42813.820138888892</v>
+      </c>
+      <c r="T18" s="4">
+        <v>42814.531944444447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>102</v>
       </c>
@@ -3766,8 +3940,13 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="8">
+        <v>0</v>
+      </c>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>72</v>
       </c>
@@ -3813,8 +3992,20 @@
       <c r="O20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q20" s="12">
+        <v>42813.775694444441</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
+        <v>42814.444444444445</v>
+      </c>
+      <c r="T20" s="4">
+        <v>42814.537499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>95</v>
       </c>
@@ -3857,8 +4048,13 @@
       <c r="O21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="8">
+        <v>1</v>
+      </c>
+      <c r="S21" s="8"/>
+    </row>
+    <row r="22" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>107</v>
       </c>
@@ -3904,8 +4100,17 @@
       <c r="O22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q22" s="12">
+        <v>42813.820138888892</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1</v>
+      </c>
+      <c r="S22" s="12">
+        <v>42813.822916666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>110</v>
       </c>
@@ -3948,8 +4153,17 @@
       <c r="O23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q23" s="12">
+        <v>42813.779166666667</v>
+      </c>
+      <c r="R23" s="8">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10">
+        <v>42813.893055555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>93</v>
       </c>
@@ -3993,10 +4207,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -4042,8 +4259,13 @@
       <c r="O25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8"/>
+    </row>
+    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>27</v>
       </c>
@@ -4086,8 +4308,13 @@
       <c r="O26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>96</v>
       </c>
@@ -4130,8 +4357,13 @@
       <c r="O27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8">
+        <v>0</v>
+      </c>
+      <c r="S27" s="8"/>
+    </row>
+    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>14</v>
       </c>
@@ -4175,10 +4407,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+    </row>
+    <row r="29" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>12</v>
       </c>
@@ -4224,8 +4459,11 @@
       <c r="P29" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>105</v>
       </c>
@@ -4269,10 +4507,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>48</v>
       </c>
@@ -4316,10 +4557,13 @@
         <v>0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>50</v>
       </c>
@@ -4365,8 +4609,17 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q32" s="11">
+        <v>42813.78125</v>
+      </c>
+      <c r="R32" s="7">
+        <v>1</v>
+      </c>
+      <c r="S32" s="11">
+        <v>42814.645833333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>74</v>
       </c>
@@ -4409,8 +4662,11 @@
       <c r="O33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>113</v>
       </c>
@@ -4453,8 +4709,11 @@
       <c r="O34" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>39</v>
       </c>
@@ -4498,10 +4757,13 @@
         <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>98</v>
       </c>
@@ -4548,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>100</v>
       </c>
@@ -4592,10 +4854,13 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4639,10 +4904,22 @@
         <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>42814.968055555553</v>
+      </c>
+      <c r="R38" s="7">
+        <v>1</v>
+      </c>
+      <c r="S38" s="11">
+        <v>42815.011805555558</v>
+      </c>
+      <c r="T38" s="11">
+        <v>42815.011805555558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>46</v>
       </c>
@@ -4685,8 +4962,11 @@
       <c r="O39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4732,8 +5012,17 @@
       <c r="O40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q40" s="11">
+        <v>42813.790972222225</v>
+      </c>
+      <c r="R40" s="7">
+        <v>1</v>
+      </c>
+      <c r="S40" s="11">
+        <v>42813.877083333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>9</v>
       </c>
@@ -4777,10 +5066,13 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>119</v>
       </c>
@@ -4826,8 +5118,17 @@
       <c r="O42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q42" s="11">
+        <v>42813.793055555558</v>
+      </c>
+      <c r="R42" s="7">
+        <v>1</v>
+      </c>
+      <c r="S42" s="11">
+        <v>42814.400694444441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>112</v>
       </c>
@@ -4870,8 +5171,17 @@
       <c r="O43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q43" s="11">
+        <v>42813.793055555558</v>
+      </c>
+      <c r="R43" s="7">
+        <v>1</v>
+      </c>
+      <c r="S43" s="11">
+        <v>42813.845138888886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>116</v>
       </c>
@@ -4915,10 +5225,22 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+        <v>595</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>42813.795138888891</v>
+      </c>
+      <c r="R44" s="7">
+        <v>1</v>
+      </c>
+      <c r="S44" s="11">
+        <v>42813.875</v>
+      </c>
+      <c r="T44" s="1">
+        <v>42814.884722222225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>21</v>
       </c>
@@ -4962,10 +5284,13 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>11</v>
       </c>
@@ -5011,8 +5336,11 @@
       <c r="P46" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>51</v>
       </c>
@@ -5058,8 +5386,11 @@
       <c r="O47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>55</v>
       </c>
@@ -5105,8 +5436,17 @@
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q48" s="11">
+        <v>42813.796527777777</v>
+      </c>
+      <c r="R48" s="7">
+        <v>1</v>
+      </c>
+      <c r="S48" s="11">
+        <v>42813.854861111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>104</v>
       </c>
@@ -5149,8 +5489,20 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q49" s="11">
+        <v>42813.79791666667</v>
+      </c>
+      <c r="R49" s="7">
+        <v>1</v>
+      </c>
+      <c r="S49" s="11">
+        <v>42813.841666666667</v>
+      </c>
+      <c r="T49" s="1">
+        <v>42814.48541666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>92</v>
       </c>
@@ -5196,8 +5548,17 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q50" s="11">
+        <v>42813.798611111109</v>
+      </c>
+      <c r="R50" s="7">
+        <v>1</v>
+      </c>
+      <c r="S50" s="11">
+        <v>42813.865972222222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>58</v>
       </c>
@@ -5240,8 +5601,20 @@
       <c r="O51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q51" s="11">
+        <v>42813.8</v>
+      </c>
+      <c r="R51" s="7">
+        <v>1</v>
+      </c>
+      <c r="S51" s="11">
+        <v>42814.619444444441</v>
+      </c>
+      <c r="T51" s="1">
+        <v>42815.421527777777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>39</v>
       </c>
@@ -5284,8 +5657,11 @@
       <c r="O52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>37</v>
       </c>
@@ -5329,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>62</v>
       </c>
@@ -5379,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>56</v>
       </c>
@@ -5423,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>58</v>
       </c>
@@ -5472,8 +5848,11 @@
       <c r="O56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>30</v>
       </c>
@@ -5517,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>19</v>
       </c>
@@ -5563,8 +5942,17 @@
       <c r="O58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q58" s="11">
+        <v>42813.802777777775</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1</v>
+      </c>
+      <c r="S58" s="11">
+        <v>42813.870138888888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>34</v>
       </c>
@@ -5608,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>109</v>
       </c>
@@ -5654,8 +6042,11 @@
       <c r="O60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>54</v>
       </c>
@@ -5698,8 +6089,17 @@
       <c r="O61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q61" s="11">
+        <v>42813.804166666669</v>
+      </c>
+      <c r="R61" s="7">
+        <v>1</v>
+      </c>
+      <c r="S61" s="11">
+        <v>42814.374305555553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>88</v>
       </c>
@@ -5743,10 +6143,22 @@
         <v>1</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>597</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>42813.805555555555</v>
+      </c>
+      <c r="R62" s="8">
+        <v>1</v>
+      </c>
+      <c r="S62" s="10">
+        <v>42813.850694444445</v>
+      </c>
+      <c r="T62" s="4">
+        <v>42814.770833333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>15</v>
       </c>
@@ -5792,8 +6204,13 @@
       <c r="P63" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8"/>
+    </row>
+    <row r="64" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>81</v>
       </c>
@@ -5839,8 +6256,13 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="S64" s="8"/>
+    </row>
+    <row r="65" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>113</v>
       </c>
@@ -5883,8 +6305,13 @@
       <c r="O65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8">
+        <v>0</v>
+      </c>
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>21</v>
       </c>
@@ -5927,8 +6354,13 @@
       <c r="O66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8">
+        <v>0</v>
+      </c>
+      <c r="S66" s="8"/>
+    </row>
+    <row r="67" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>47</v>
       </c>
@@ -5971,8 +6403,13 @@
       <c r="O67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8">
+        <v>0</v>
+      </c>
+      <c r="S67" s="8"/>
+    </row>
+    <row r="68" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>89</v>
       </c>
@@ -6018,8 +6455,17 @@
       <c r="O68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q68" s="10">
+        <v>42813.811111111114</v>
+      </c>
+      <c r="R68" s="8">
+        <v>1</v>
+      </c>
+      <c r="S68" s="10">
+        <v>43180.854861111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
         <v>50</v>
       </c>
@@ -6065,8 +6511,13 @@
       <c r="O69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8">
+        <v>0</v>
+      </c>
+      <c r="S69" s="8"/>
+    </row>
+    <row r="70" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
         <v>101</v>
       </c>
@@ -6109,8 +6560,13 @@
       <c r="O70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8">
+        <v>0</v>
+      </c>
+      <c r="S70" s="8"/>
+    </row>
+    <row r="71" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
         <v>115</v>
       </c>
@@ -6154,10 +6610,19 @@
         <v>1</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>598</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>42814.897222222222</v>
+      </c>
+      <c r="R71" s="8">
+        <v>1</v>
+      </c>
+      <c r="S71" s="10">
+        <v>42815.49722222222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
         <v>28</v>
       </c>
@@ -6203,8 +6668,17 @@
       <c r="O72" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q72" s="10">
+        <v>42813.814583333333</v>
+      </c>
+      <c r="R72" s="8">
+        <v>1</v>
+      </c>
+      <c r="S72" s="10">
+        <v>42813.85833333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
         <v>101</v>
       </c>
@@ -6247,8 +6721,13 @@
       <c r="O73" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8"/>
+    </row>
+    <row r="74" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
         <v>10</v>
       </c>
@@ -6291,8 +6770,17 @@
       <c r="O74" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q74" s="10">
+        <v>42813.816666666666</v>
+      </c>
+      <c r="R74" s="8">
+        <v>1</v>
+      </c>
+      <c r="S74" s="10">
+        <v>42813.911111111112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
         <v>34</v>
       </c>
@@ -6338,8 +6826,17 @@
       <c r="O75" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q75" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="R75" s="8">
+        <v>1</v>
+      </c>
+      <c r="S75" s="10">
+        <v>42814.431944444441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
         <v>87</v>
       </c>
@@ -6371,7 +6868,7 @@
         <v>235</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -6382,8 +6879,13 @@
       <c r="O76" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8">
+        <v>0</v>
+      </c>
+      <c r="S76" s="8"/>
+    </row>
+    <row r="77" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
         <v>53</v>
       </c>
@@ -6427,10 +6929,19 @@
         <v>1</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>595</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>42814.897222222222</v>
+      </c>
+      <c r="R77" s="8">
+        <v>1</v>
+      </c>
+      <c r="S77" s="10">
+        <v>42815.302083333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
         <v>60</v>
       </c>
@@ -6473,8 +6984,17 @@
       <c r="O78" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q78" s="10">
+        <v>42813.821527777778</v>
+      </c>
+      <c r="R78" s="8">
+        <v>1</v>
+      </c>
+      <c r="S78" s="10">
+        <v>42813.934027777781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
         <v>66</v>
       </c>
@@ -6518,10 +7038,13 @@
         <v>0</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="8"/>
+      <c r="S79" s="8"/>
+    </row>
+    <row r="80" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
         <v>113</v>
       </c>
@@ -6564,8 +7087,20 @@
       <c r="O80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q80" s="10">
+        <v>42813.822222222225</v>
+      </c>
+      <c r="R80" s="8">
+        <v>1</v>
+      </c>
+      <c r="S80" s="10">
+        <v>42813.975694444445</v>
+      </c>
+      <c r="T80" s="4">
+        <v>42814.71597222222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
         <v>30</v>
       </c>
@@ -6608,8 +7143,17 @@
       <c r="O81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q81" s="10">
+        <v>42813.88958333333</v>
+      </c>
+      <c r="R81" s="8">
+        <v>1</v>
+      </c>
+      <c r="S81" s="10">
+        <v>42814.465277777781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
         <v>98</v>
       </c>
@@ -6653,10 +7197,13 @@
         <v>0</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q82" s="8"/>
+      <c r="R82" s="8"/>
+      <c r="S82" s="8"/>
+    </row>
+    <row r="83" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -6699,8 +7246,17 @@
       <c r="O83" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q83" s="10">
+        <v>42813.823611111111</v>
+      </c>
+      <c r="R83" s="8">
+        <v>1</v>
+      </c>
+      <c r="S83" s="10">
+        <v>42814.417361111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
         <v>117</v>
       </c>
@@ -6743,8 +7299,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+    </row>
+    <row r="85" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -6790,8 +7349,13 @@
       <c r="O85" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8">
+        <v>0</v>
+      </c>
+      <c r="S85" s="8"/>
+    </row>
+    <row r="86" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
         <v>29</v>
       </c>
@@ -6835,10 +7399,13 @@
         <v>0</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>595</v>
+      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+    </row>
+    <row r="87" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
         <v>61</v>
       </c>
@@ -6881,8 +7448,13 @@
       <c r="O87" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8">
+        <v>0</v>
+      </c>
+      <c r="S87" s="8"/>
+    </row>
+    <row r="88" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -6925,8 +7497,13 @@
       <c r="O88" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8">
+        <v>0</v>
+      </c>
+      <c r="S88" s="8"/>
+    </row>
+    <row r="89" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
         <v>115</v>
       </c>
@@ -6975,8 +7552,17 @@
       <c r="P89" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q89" s="10">
+        <v>42813.905555555553</v>
+      </c>
+      <c r="R89" s="8">
+        <v>1</v>
+      </c>
+      <c r="S89" s="10">
+        <v>42813.992361111108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
         <v>23</v>
       </c>
@@ -7019,8 +7605,13 @@
       <c r="O90" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8">
+        <v>0</v>
+      </c>
+      <c r="S90" s="8"/>
+    </row>
+    <row r="91" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
         <v>51</v>
       </c>
@@ -7066,8 +7657,17 @@
       <c r="O91" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q91" s="10">
+        <v>42813.830555555556</v>
+      </c>
+      <c r="R91" s="8">
+        <v>1</v>
+      </c>
+      <c r="S91" s="10">
+        <v>42813.952777777777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7099,7 +7699,7 @@
         <v>278</v>
       </c>
       <c r="L92" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M92" s="6">
         <v>0</v>
@@ -7111,9 +7711,12 @@
         <v>1</v>
       </c>
       <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q92" s="9"/>
+      <c r="R92" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>37</v>
       </c>
@@ -7145,7 +7748,7 @@
         <v>281</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M93" s="6">
         <v>0</v>
@@ -7156,8 +7759,11 @@
       <c r="O93" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R93" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>74</v>
       </c>
@@ -7192,7 +7798,7 @@
         <v>284</v>
       </c>
       <c r="L94" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M94" s="6">
         <v>0</v>
@@ -7203,8 +7809,17 @@
       <c r="O94" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q94" s="11">
+        <v>42813.865972222222</v>
+      </c>
+      <c r="R94" s="7">
+        <v>1</v>
+      </c>
+      <c r="S94" s="11">
+        <v>42814.45416666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>63</v>
       </c>
@@ -7248,10 +7863,13 @@
         <v>1</v>
       </c>
       <c r="P95" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>22</v>
       </c>
@@ -7286,7 +7904,7 @@
         <v>289</v>
       </c>
       <c r="L96" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -7297,8 +7915,11 @@
       <c r="O96" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>41</v>
       </c>
@@ -7333,7 +7954,7 @@
         <v>292</v>
       </c>
       <c r="L97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -7344,8 +7965,17 @@
       <c r="O97" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q97" s="11">
+        <v>42813.877083333333</v>
+      </c>
+      <c r="R97" s="7">
+        <v>1</v>
+      </c>
+      <c r="S97" s="11">
+        <v>42814.492361111108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>81</v>
       </c>
@@ -7380,13 +8010,13 @@
         <v>295</v>
       </c>
       <c r="L98" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O98" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>89</v>
       </c>
@@ -7418,7 +8048,7 @@
         <v>298</v>
       </c>
       <c r="L99" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -7429,8 +8059,11 @@
       <c r="O99" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>26</v>
       </c>
@@ -7465,7 +8098,7 @@
         <v>301</v>
       </c>
       <c r="L100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M100">
         <v>1</v>
@@ -7476,8 +8109,17 @@
       <c r="O100" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q100" s="11">
+        <v>42813.880555555559</v>
+      </c>
+      <c r="R100" s="7">
+        <v>1</v>
+      </c>
+      <c r="S100" s="11">
+        <v>42814.425694444442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>37</v>
       </c>
@@ -7521,10 +8163,13 @@
         <v>1</v>
       </c>
       <c r="P101" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>87</v>
       </c>
@@ -7556,7 +8201,7 @@
         <v>307</v>
       </c>
       <c r="L102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -7567,8 +8212,17 @@
       <c r="O102" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q102" s="11">
+        <v>42813.882638888892</v>
+      </c>
+      <c r="R102" s="7">
+        <v>1</v>
+      </c>
+      <c r="S102" s="11">
+        <v>42814.490277777775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>117</v>
       </c>
@@ -7603,7 +8257,7 @@
         <v>310</v>
       </c>
       <c r="L103" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -7614,8 +8268,17 @@
       <c r="O103" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q103" s="11">
+        <v>42813.884027777778</v>
+      </c>
+      <c r="R103" s="7">
+        <v>1</v>
+      </c>
+      <c r="S103" s="11">
+        <v>42814.388888888891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>25</v>
       </c>
@@ -7659,10 +8322,13 @@
         <v>1</v>
       </c>
       <c r="P104" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>64</v>
       </c>
@@ -7697,7 +8363,7 @@
         <v>313</v>
       </c>
       <c r="L105" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -7708,8 +8374,17 @@
       <c r="O105" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q105" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="R105" s="7">
+        <v>1</v>
+      </c>
+      <c r="S105" s="11">
+        <v>42814.479166666664</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>11</v>
       </c>
@@ -7741,7 +8416,7 @@
         <v>60</v>
       </c>
       <c r="L106" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -7755,8 +8430,11 @@
       <c r="P106" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>117</v>
       </c>
@@ -7791,7 +8469,7 @@
         <v>316</v>
       </c>
       <c r="L107" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -7802,8 +8480,17 @@
       <c r="O107" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q107" s="11">
+        <v>42813.961111111108</v>
+      </c>
+      <c r="R107" s="7">
+        <v>1</v>
+      </c>
+      <c r="S107" s="11">
+        <v>42814.597916666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>27</v>
       </c>
@@ -7838,7 +8525,7 @@
         <v>319</v>
       </c>
       <c r="L108" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -7850,10 +8537,13 @@
         <v>1</v>
       </c>
       <c r="P108" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>112</v>
       </c>
@@ -7885,7 +8575,7 @@
         <v>138</v>
       </c>
       <c r="L109" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -7896,8 +8586,11 @@
       <c r="O109" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>88</v>
       </c>
@@ -7932,7 +8625,7 @@
         <v>322</v>
       </c>
       <c r="L110" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -7943,8 +8636,11 @@
       <c r="O110" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>114</v>
       </c>
@@ -7976,7 +8672,7 @@
         <v>325</v>
       </c>
       <c r="L111" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -7988,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>74</v>
       </c>
@@ -8020,7 +8716,7 @@
         <v>328</v>
       </c>
       <c r="L112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -8031,8 +8727,17 @@
       <c r="O112" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q112" s="11">
+        <v>42813.913888888892</v>
+      </c>
+      <c r="R112" s="7">
+        <v>1</v>
+      </c>
+      <c r="S112" s="11">
+        <v>42813.35833333333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>52</v>
       </c>
@@ -8064,7 +8769,7 @@
         <v>331</v>
       </c>
       <c r="L113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -8075,8 +8780,11 @@
       <c r="O113" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>36</v>
       </c>
@@ -8108,7 +8816,7 @@
         <v>334</v>
       </c>
       <c r="L114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -8119,8 +8827,17 @@
       <c r="O114" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q114" s="11">
+        <v>42813.892361111109</v>
+      </c>
+      <c r="R114" s="7">
+        <v>1</v>
+      </c>
+      <c r="S114" s="11">
+        <v>42814.402777777781</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>53</v>
       </c>
@@ -8152,7 +8869,7 @@
         <v>337</v>
       </c>
       <c r="L115" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M115">
         <v>0</v>
@@ -8163,8 +8880,11 @@
       <c r="O115" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>116</v>
       </c>
@@ -8199,7 +8919,7 @@
         <v>340</v>
       </c>
       <c r="L116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -8210,8 +8930,11 @@
       <c r="O116" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R116" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>110</v>
       </c>
@@ -8243,7 +8966,7 @@
         <v>343</v>
       </c>
       <c r="L117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -8254,8 +8977,20 @@
       <c r="O117" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q117" s="11">
+        <v>42813.895833333336</v>
+      </c>
+      <c r="R117" s="7">
+        <v>1</v>
+      </c>
+      <c r="S117" s="11">
+        <v>42813.943055555559</v>
+      </c>
+      <c r="T117" s="1">
+        <v>42814.969444444447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>113</v>
       </c>
@@ -8287,7 +9022,7 @@
         <v>346</v>
       </c>
       <c r="L118" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -8298,8 +9033,11 @@
       <c r="O118" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R118" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>21</v>
       </c>
@@ -8340,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>3</v>
       </c>
@@ -8375,7 +9113,7 @@
         <v>352</v>
       </c>
       <c r="L120" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -8386,8 +9124,17 @@
       <c r="O120" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q120" s="11">
+        <v>42813.899305555555</v>
+      </c>
+      <c r="R120" s="7">
+        <v>1</v>
+      </c>
+      <c r="S120" s="11">
+        <v>42814.590277777781</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>8</v>
       </c>
@@ -8419,7 +9166,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
         <v>59</v>
       </c>
@@ -8463,10 +9210,15 @@
         <v>1</v>
       </c>
       <c r="P122" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="8">
+        <v>0</v>
+      </c>
+      <c r="S122" s="8"/>
+    </row>
+    <row r="123" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
         <v>6</v>
       </c>
@@ -8498,7 +9250,7 @@
         <v>359</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M123" s="3">
         <v>0</v>
@@ -8509,8 +9261,13 @@
       <c r="O123" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8">
+        <v>0</v>
+      </c>
+      <c r="S123" s="8"/>
+    </row>
+    <row r="124" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
         <v>0</v>
       </c>
@@ -8545,7 +9302,7 @@
         <v>362</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M124" s="3">
         <v>0</v>
@@ -8556,8 +9313,13 @@
       <c r="O124" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q124" s="8"/>
+      <c r="R124" s="8">
+        <v>0</v>
+      </c>
+      <c r="S124" s="8"/>
+    </row>
+    <row r="125" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
         <v>48</v>
       </c>
@@ -8589,7 +9351,7 @@
         <v>365</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M125" s="3">
         <v>0</v>
@@ -8600,8 +9362,13 @@
       <c r="O125" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q125" s="8"/>
+      <c r="R125" s="8">
+        <v>0</v>
+      </c>
+      <c r="S125" s="8"/>
+    </row>
+    <row r="126" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
         <v>17</v>
       </c>
@@ -8633,7 +9400,7 @@
         <v>368</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M126" s="3">
         <v>0</v>
@@ -8645,10 +9412,15 @@
         <v>1</v>
       </c>
       <c r="P126" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8">
+        <v>0</v>
+      </c>
+      <c r="S126" s="8"/>
+    </row>
+    <row r="127" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
         <v>107</v>
       </c>
@@ -8680,7 +9452,7 @@
         <v>371</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M127" s="3">
         <v>0</v>
@@ -8691,8 +9463,13 @@
       <c r="O127" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q127" s="8"/>
+      <c r="R127" s="8">
+        <v>0</v>
+      </c>
+      <c r="S127" s="8"/>
+    </row>
+    <row r="128" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
         <v>116</v>
       </c>
@@ -8727,7 +9504,7 @@
         <v>374</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M128" s="3">
         <v>0</v>
@@ -8738,8 +9515,17 @@
       <c r="O128" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q128" s="10">
+        <v>42813.904861111114</v>
+      </c>
+      <c r="R128" s="8">
+        <v>1</v>
+      </c>
+      <c r="S128" s="10">
+        <v>42814.513194444444</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
         <v>41</v>
       </c>
@@ -8771,7 +9557,7 @@
         <v>377</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M129" s="3">
         <v>0</v>
@@ -8782,8 +9568,13 @@
       <c r="O129" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q129" s="8"/>
+      <c r="R129" s="8">
+        <v>0</v>
+      </c>
+      <c r="S129" s="8"/>
+    </row>
+    <row r="130" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
         <v>95</v>
       </c>
@@ -8818,7 +9609,7 @@
         <v>380</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M130" s="3">
         <v>0</v>
@@ -8829,8 +9620,13 @@
       <c r="O130" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q130" s="8"/>
+      <c r="R130" s="8">
+        <v>0</v>
+      </c>
+      <c r="S130" s="8"/>
+    </row>
+    <row r="131" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
         <v>107</v>
       </c>
@@ -8862,7 +9658,7 @@
         <v>383</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M131" s="3">
         <v>0</v>
@@ -8873,8 +9669,13 @@
       <c r="O131" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q131" s="8"/>
+      <c r="R131" s="8">
+        <v>0</v>
+      </c>
+      <c r="S131" s="8"/>
+    </row>
+    <row r="132" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
         <v>63</v>
       </c>
@@ -8909,7 +9710,7 @@
         <v>386</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M132" s="3">
         <v>1</v>
@@ -8920,8 +9721,13 @@
       <c r="O132" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q132" s="8"/>
+      <c r="R132" s="8">
+        <v>0</v>
+      </c>
+      <c r="S132" s="8"/>
+    </row>
+    <row r="133" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
         <v>114</v>
       </c>
@@ -8956,7 +9762,7 @@
         <v>389</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M133" s="3">
         <v>1</v>
@@ -8967,8 +9773,17 @@
       <c r="O133" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q133" s="10">
+        <v>42813.90902777778</v>
+      </c>
+      <c r="R133" s="8">
+        <v>1</v>
+      </c>
+      <c r="S133" s="10">
+        <v>42814.561111111114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
         <v>31</v>
       </c>
@@ -9000,7 +9815,7 @@
         <v>392</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M134" s="3">
         <v>0</v>
@@ -9011,8 +9826,13 @@
       <c r="O134" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q134" s="8"/>
+      <c r="R134" s="8">
+        <v>0</v>
+      </c>
+      <c r="S134" s="8"/>
+    </row>
+    <row r="135" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
         <v>27</v>
       </c>
@@ -9047,7 +9867,7 @@
         <v>395</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M135" s="3">
         <v>0</v>
@@ -9058,8 +9878,11 @@
       <c r="O135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q135" s="8"/>
+      <c r="R135" s="8"/>
+      <c r="S135" s="8"/>
+    </row>
+    <row r="136" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
         <v>109</v>
       </c>
@@ -9091,7 +9914,7 @@
         <v>398</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M136" s="3">
         <v>0</v>
@@ -9102,8 +9925,13 @@
       <c r="O136" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8">
+        <v>0</v>
+      </c>
+      <c r="S136" s="8"/>
+    </row>
+    <row r="137" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
         <v>112</v>
       </c>
@@ -9135,7 +9963,7 @@
         <v>401</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M137" s="3">
         <v>0</v>
@@ -9146,8 +9974,13 @@
       <c r="O137" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q137" s="8"/>
+      <c r="R137" s="8">
+        <v>0</v>
+      </c>
+      <c r="S137" s="8"/>
+    </row>
+    <row r="138" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
         <v>85</v>
       </c>
@@ -9190,8 +10023,13 @@
       <c r="O138" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q138" s="8"/>
+      <c r="R138" s="8">
+        <v>0</v>
+      </c>
+      <c r="S138" s="8"/>
+    </row>
+    <row r="139" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
         <v>56</v>
       </c>
@@ -9235,10 +10073,15 @@
         <v>1</v>
       </c>
       <c r="P139" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q139" s="8"/>
+      <c r="R139" s="8">
+        <v>0</v>
+      </c>
+      <c r="S139" s="8"/>
+    </row>
+    <row r="140" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
         <v>80</v>
       </c>
@@ -9270,7 +10113,7 @@
         <v>409</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M140" s="3">
         <v>0</v>
@@ -9281,8 +10124,13 @@
       <c r="O140" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q140" s="8"/>
+      <c r="R140" s="8">
+        <v>0</v>
+      </c>
+      <c r="S140" s="8"/>
+    </row>
+    <row r="141" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
         <v>11</v>
       </c>
@@ -9314,7 +10162,7 @@
         <v>412</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M141" s="3">
         <v>0</v>
@@ -9325,8 +10173,17 @@
       <c r="O141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q141" s="10">
+        <v>42813.986805555556</v>
+      </c>
+      <c r="R141" s="8">
+        <v>1</v>
+      </c>
+      <c r="S141" s="10">
+        <v>42814.040972222225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
         <v>0</v>
       </c>
@@ -9358,7 +10215,7 @@
         <v>415</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M142" s="3">
         <v>0</v>
@@ -9370,10 +10227,15 @@
         <v>0</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="S142" s="8"/>
+    </row>
+    <row r="143" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
         <v>101</v>
       </c>
@@ -9405,7 +10267,7 @@
         <v>418</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M143" s="3">
         <v>0</v>
@@ -9416,8 +10278,17 @@
       <c r="O143" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q143" s="10">
+        <v>42813.919444444444</v>
+      </c>
+      <c r="R143" s="8">
+        <v>1</v>
+      </c>
+      <c r="S143" s="10">
+        <v>42814.505555555559</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
         <v>70</v>
       </c>
@@ -9452,7 +10323,7 @@
         <v>421</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M144" s="3">
         <v>1</v>
@@ -9463,8 +10334,17 @@
       <c r="O144" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q144" s="13">
+        <v>42813.92083333333</v>
+      </c>
+      <c r="R144" s="8">
+        <v>1</v>
+      </c>
+      <c r="S144" s="10">
+        <v>42814.490277777775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
         <v>29</v>
       </c>
@@ -9499,7 +10379,7 @@
         <v>424</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M145" s="3">
         <v>0</v>
@@ -9510,8 +10390,17 @@
       <c r="O145" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q145" s="13">
+        <v>42813.92083333333</v>
+      </c>
+      <c r="R145" s="8">
+        <v>1</v>
+      </c>
+      <c r="S145" s="10">
+        <v>42814.500694444447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
         <v>23</v>
       </c>
@@ -9543,7 +10432,7 @@
         <v>426</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M146" s="3">
         <v>0</v>
@@ -9555,10 +10444,13 @@
         <v>0</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="8"/>
+      <c r="S146" s="8"/>
+    </row>
+    <row r="147" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
         <v>24</v>
       </c>
@@ -9602,10 +10494,13 @@
         <v>0</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+    </row>
+    <row r="148" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
         <v>21</v>
       </c>
@@ -9640,7 +10535,7 @@
         <v>431</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M148" s="3">
         <v>0</v>
@@ -9651,8 +10546,17 @@
       <c r="O148" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q148" s="10">
+        <v>42813.92291666667</v>
+      </c>
+      <c r="R148" s="8">
+        <v>1</v>
+      </c>
+      <c r="S148" s="10">
+        <v>42814.501388888886</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
         <v>10</v>
       </c>
@@ -9683,8 +10587,14 @@
       <c r="K149" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="M149" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+    </row>
+    <row r="150" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
         <v>47</v>
       </c>
@@ -9715,8 +10625,11 @@
       <c r="K150" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+    </row>
+    <row r="151" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
         <v>18</v>
       </c>
@@ -9747,8 +10660,11 @@
       <c r="K151" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>7</v>
       </c>
@@ -9780,7 +10696,7 @@
         <v>444</v>
       </c>
       <c r="L152" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M152">
         <v>0</v>
@@ -9792,10 +10708,13 @@
         <v>1</v>
       </c>
       <c r="P152" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="R152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>76</v>
       </c>
@@ -9827,7 +10746,7 @@
         <v>447</v>
       </c>
       <c r="L153" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M153">
         <v>1</v>
@@ -9838,8 +10757,11 @@
       <c r="O153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>13</v>
       </c>
@@ -9871,7 +10793,7 @@
         <v>450</v>
       </c>
       <c r="L154" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -9883,10 +10805,13 @@
         <v>1</v>
       </c>
       <c r="P154" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="R154" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>75</v>
       </c>
@@ -9918,7 +10843,7 @@
         <v>453</v>
       </c>
       <c r="L155" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -9929,8 +10854,11 @@
       <c r="O155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>27</v>
       </c>
@@ -9974,10 +10902,13 @@
         <v>1</v>
       </c>
       <c r="P156" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>71</v>
       </c>
@@ -10012,13 +10943,13 @@
         <v>457</v>
       </c>
       <c r="L157" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O157" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>50</v>
       </c>
@@ -10053,7 +10984,7 @@
         <v>460</v>
       </c>
       <c r="L158" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M158">
         <v>0</v>
@@ -10064,8 +10995,20 @@
       <c r="O158" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q158" s="11">
+        <v>42813.913194444445</v>
+      </c>
+      <c r="R158" s="7">
+        <v>1</v>
+      </c>
+      <c r="S158" s="11">
+        <v>42814.479861111111</v>
+      </c>
+      <c r="T158" s="1">
+        <v>42814.8125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>18</v>
       </c>
@@ -10097,7 +11040,7 @@
         <v>462</v>
       </c>
       <c r="L159" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M159">
         <v>0</v>
@@ -10108,8 +11051,11 @@
       <c r="O159" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>41</v>
       </c>
@@ -10153,10 +11099,13 @@
         <v>1</v>
       </c>
       <c r="P160" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+      <c r="R160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>28</v>
       </c>
@@ -10188,7 +11137,7 @@
         <v>467</v>
       </c>
       <c r="L161" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M161">
         <v>0</v>
@@ -10199,8 +11148,11 @@
       <c r="O161" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>103</v>
       </c>
@@ -10232,7 +11184,7 @@
         <v>371</v>
       </c>
       <c r="L162" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M162">
         <v>0</v>
@@ -10243,8 +11195,11 @@
       <c r="O162" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>49</v>
       </c>
@@ -10279,7 +11234,7 @@
         <v>470</v>
       </c>
       <c r="L163" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -10290,8 +11245,20 @@
       <c r="O163" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q163" s="11">
+        <v>42813.931250000001</v>
+      </c>
+      <c r="R163" s="7">
+        <v>1</v>
+      </c>
+      <c r="S163" s="11">
+        <v>42814.422222222223</v>
+      </c>
+      <c r="T163" s="1">
+        <v>42814.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>94</v>
       </c>
@@ -10323,7 +11290,7 @@
         <v>472</v>
       </c>
       <c r="L164" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -10334,8 +11301,11 @@
       <c r="O164" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>65</v>
       </c>
@@ -10370,7 +11340,7 @@
         <v>475</v>
       </c>
       <c r="L165" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -10381,8 +11351,11 @@
       <c r="O165" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>32</v>
       </c>
@@ -10417,7 +11390,7 @@
         <v>478</v>
       </c>
       <c r="L166" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -10428,8 +11401,17 @@
       <c r="O166" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q166" s="11">
+        <v>42814.011805555558</v>
+      </c>
+      <c r="R166" s="7">
+        <v>1</v>
+      </c>
+      <c r="S166" s="11">
+        <v>42814.355555555558</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>13</v>
       </c>
@@ -10461,7 +11443,7 @@
         <v>481</v>
       </c>
       <c r="L167" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -10475,8 +11457,11 @@
       <c r="P167" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R167" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>118</v>
       </c>
@@ -10511,7 +11496,7 @@
         <v>484</v>
       </c>
       <c r="L168" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -10522,8 +11507,17 @@
       <c r="O168" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q168" s="11">
+        <v>42813.936111111114</v>
+      </c>
+      <c r="R168" s="7">
+        <v>1</v>
+      </c>
+      <c r="S168" s="11">
+        <v>42814.380555555559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>41</v>
       </c>
@@ -10555,7 +11549,7 @@
         <v>487</v>
       </c>
       <c r="L169" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M169">
         <v>1</v>
@@ -10566,8 +11560,11 @@
       <c r="O169" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>7</v>
       </c>
@@ -10599,7 +11596,7 @@
         <v>490</v>
       </c>
       <c r="L170" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -10611,10 +11608,19 @@
         <v>1</v>
       </c>
       <c r="P170" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.45">
+        <v>596</v>
+      </c>
+      <c r="Q170" s="11">
+        <v>42814.979861111111</v>
+      </c>
+      <c r="R170" s="7">
+        <v>1</v>
+      </c>
+      <c r="S170" s="11">
+        <v>42815.027777777781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>18</v>
       </c>
@@ -10649,7 +11655,7 @@
         <v>493</v>
       </c>
       <c r="L171" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M171">
         <v>1</v>
@@ -10660,8 +11666,17 @@
       <c r="O171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q171" s="11">
+        <v>42813.938888888886</v>
+      </c>
+      <c r="R171" s="7">
+        <v>1</v>
+      </c>
+      <c r="S171" s="11">
+        <v>42814.488888888889</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>57</v>
       </c>
@@ -10705,10 +11720,10 @@
         <v>0</v>
       </c>
       <c r="P172" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>73</v>
       </c>
@@ -10743,7 +11758,7 @@
         <v>498</v>
       </c>
       <c r="L173" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M173">
         <v>1</v>
@@ -10754,8 +11769,11 @@
       <c r="O173" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="R173" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>106</v>
       </c>
@@ -10787,13 +11805,13 @@
         <v>501</v>
       </c>
       <c r="L174" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O174" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>69</v>
       </c>
@@ -10825,7 +11843,7 @@
         <v>504</v>
       </c>
       <c r="L175" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M175">
         <v>0</v>
@@ -10836,8 +11854,17 @@
       <c r="O175" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q175" s="11">
+        <v>42814.020833333336</v>
+      </c>
+      <c r="R175" s="7">
+        <v>1</v>
+      </c>
+      <c r="S175" s="11">
+        <v>42814.328472222223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>40</v>
       </c>
@@ -10881,10 +11908,10 @@
         <v>0</v>
       </c>
       <c r="P176" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>34</v>
       </c>
@@ -10928,10 +11955,13 @@
         <v>1</v>
       </c>
       <c r="P177" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+      <c r="R177" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>63</v>
       </c>
@@ -10975,10 +12005,10 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.45">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>71</v>
       </c>
@@ -11022,10 +12052,10 @@
         <v>0</v>
       </c>
       <c r="P179" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>97</v>
       </c>
@@ -11069,10 +12099,10 @@
         <v>0</v>
       </c>
       <c r="P180" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.45">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>99</v>
       </c>
@@ -11104,7 +12134,7 @@
         <v>519</v>
       </c>
       <c r="L181" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -11114,6 +12144,15 @@
       </c>
       <c r="O181" s="6">
         <v>1</v>
+      </c>
+      <c r="Q181" s="11">
+        <v>42814.025000000001</v>
+      </c>
+      <c r="R181" s="7">
+        <v>1</v>
+      </c>
+      <c r="S181" s="11">
+        <v>42814.070833333331</v>
       </c>
     </row>
   </sheetData>
